--- a/biology/Botanique/Houx_cassine/Houx_cassine.xlsx
+++ b/biology/Botanique/Houx_cassine/Houx_cassine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilex cassine
 Le houx cassine (Ilex cassine L.) est un arbuste appartenant au genre Ilex, famille des Aquifoliacée, originaire d'Amérique du Nord, cultivé comme arbuste d'ornement.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbuste ou un petit arbre pouvant atteindre de 10 à 13 m de haut ;
 Son feuillage persistant est composé de feuilles elliptiques-oblongues de 6 à 15 cm de long sur 2 à 4 cm, de couleur vert foncé luisant, généralement entières à bord lisse, parfois avec quelques petites épines près du sommet.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de la côte sud-est des États-Unis de la Virginie au sud-est du Texas. On la trouve également dans le centre du Mexique (Veracruz) et dans les Antilles (Cuba, Porto Rico, Bahamas).
 Son aire d'expansion a été étendue vers l'intérieur des terres par la culture.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste est cultivé à des fins ornementales pour l'attrait de ses fruits rouge brillant contrastant fortement avec le feuillage vert luisant.
 </t>
